--- a/biology/Médecine/Witness_to_War__Dr._Charlie_Clements/Witness_to_War__Dr._Charlie_Clements.xlsx
+++ b/biology/Médecine/Witness_to_War__Dr._Charlie_Clements/Witness_to_War__Dr._Charlie_Clements.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Witness to War: Dr. Charlie Clements est un court-métrage documentaire américain, réalisé par Deborah Shaffer et produit par David Goodman , sorti en 1985.
@@ -513,9 +525,11 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Un pilote américain est convaincu par ses expériences durant la guerre du Viêt Nam qu'il doit faire une carrière de médecin afin de soigner les gens plutôt que les tuer[1]. Le film montre en particulier son travail en tant que médecin au Salvador durant le conflit avec le Honduras en 1969.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un pilote américain est convaincu par ses expériences durant la guerre du Viêt Nam qu'il doit faire une carrière de médecin afin de soigner les gens plutôt que les tuer. Le film montre en particulier son travail en tant que médecin au Salvador durant le conflit avec le Honduras en 1969.
 </t>
         </is>
       </c>
@@ -544,7 +558,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Réalisation : Deborah Shaffer
 Producteur : David Goodman
@@ -578,7 +594,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Charlie Clements (en) : lui-même
 Richard Nixon (images d'archive)</t>
@@ -609,9 +627,11 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>1986 : Oscar du meilleur court métrage documentaire[2].</t>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>1986 : Oscar du meilleur court métrage documentaire.</t>
         </is>
       </c>
     </row>
